--- a/loaded_influencer_data/ugc.theevanscreative/ugc.theevanscreative_video.xlsx
+++ b/loaded_influencer_data/ugc.theevanscreative/ugc.theevanscreative_video.xlsx
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7367319828253740321</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.126436781609195</v>
+        <v>7.110091743119266</v>
       </c>
       <c r="I2" t="n">
-        <v>7.126436781609195</v>
+        <v>7.110091743119266</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4597701149425287</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -557,13 +557,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7366897190028987681</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C3" t="n">
         <v>53</v>
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.208400646203554</v>
+        <v>9.193548387096774</v>
       </c>
       <c r="I3" t="n">
-        <v>8.562197092084006</v>
+        <v>8.548387096774194</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6462035541195477</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3231017770597738</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7361063739132546336</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C4" t="n">
         <v>54</v>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.622489959839357</v>
+        <v>5.616850551654965</v>
       </c>
       <c r="I4" t="n">
-        <v>5.421686746987952</v>
+        <v>5.416248746238716</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2008032128514056</v>
+        <v>0.2006018054162488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2008032128514056</v>
+        <v>0.2006018054162488</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7355820462447824160</t>
         </is>
@@ -707,7 +707,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7354422127522614561</t>
         </is>
@@ -719,7 +719,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.199021207177815</v>
+        <v>5.872756933115824</v>
       </c>
       <c r="I6" t="n">
         <v>5.546492659053833</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6525285481239804</v>
+        <v>0.3262642740619902</v>
       </c>
       <c r="L6" t="n">
         <v>0.6525285481239804</v>
@@ -758,7 +758,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/photo/7354020388550069537</t>
         </is>
@@ -780,7 +780,8 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>#ugc #ugccreator #ugccontentcreator #ugccommunity #ugctips #ugcsverige #ugcjourney #ugclife</t>
+          <t>In collaboration with @Australian Bodycare 💚 these products are amazing!
+#australianbodycare_UGC #teatreeoil</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -808,19 +809,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7353905847258352929</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -830,23 +831,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>In collaboration with @Lip Intimate Care 🧡 I’m so happy and grateful to collaborate with brands as important as this one! Supporting Swedish brands created by and for women is so special to me!</t>
+          <t>#ugc #ugccreator #ugccontentcreator #ugccommunity #ugctips #ugcsverige #ugcjourney #ugclife</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.758620689655173</v>
+        <v>6.909090909090909</v>
       </c>
       <c r="I8" t="n">
-        <v>7.512315270935961</v>
+        <v>6.303030303030304</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2463054187192118</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4926108374384237</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -858,7 +859,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/photo/7353310884460039456</t>
         </is>
@@ -867,99 +868,99 @@
         <v>985</v>
       </c>
       <c r="C9" t="n">
+        <v>61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>In collaboration with @Lip Intimate Care 🧡 I’m so happy and grateful to collaborate with brands as important as this one! Supporting Swedish brands created by and for women is so special to me!</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.700507614213199</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.192893401015229</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5076142131979695</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4060913705583756</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-4-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.theevanscreative/video/7351490813177662752</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>729</v>
+      </c>
+      <c r="C10" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Trust the process ❤️‍🩹
 #ugc #ugccreator #ugccontentcreator #ugccommunity #ugctips #ugcsverige #ugcjourney</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>9.238578680203045</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.411167512690356</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.827411167512691</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1015228426395939</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>11.65980795610425</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.01371742112483</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.646090534979424</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1371742112482853</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2024-4-3</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.theevanscreative/video/7351490813177662752</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>729</v>
-      </c>
-      <c r="C10" t="n">
-        <v>65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>I am so so so thankful and proud of myself, because I went agaisnt the fear and didn’t listen to the people who thought that me working with social media was weird or impossible… Instead, I believed in myself! That choice has taken me to a point where I now get paid to create content for amazing products and brands ❤️‍🩹</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9.739368998628258</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.916323731138547</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.823045267489712</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.2743484224965706</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024-3-29</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7349599071448927520</t>
         </is>
@@ -1010,7 +1011,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7349092067387165985</t>
         </is>
@@ -1061,7 +1062,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7348800836023225632</t>
         </is>
@@ -1112,7 +1113,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7348062492125416737</t>
         </is>
@@ -1163,7 +1164,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/photo/7347773656702913824</t>
         </is>
@@ -1214,7 +1215,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7346936027325500704</t>
         </is>
@@ -1265,7 +1266,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7346595928670850337</t>
         </is>
@@ -1316,7 +1317,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7346188135816056096</t>
         </is>
@@ -1366,7 +1367,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7345832393082686753</t>
         </is>
@@ -1417,7 +1418,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7345556497750871329</t>
         </is>
@@ -1468,7 +1469,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7345507188560989472</t>
         </is>
@@ -1519,7 +1520,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7345166218816458017</t>
         </is>
@@ -1570,7 +1571,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7345162130447928608</t>
         </is>
@@ -1621,7 +1622,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7344268000792513824</t>
         </is>
@@ -1672,7 +1673,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7343976914266213665</t>
         </is>
@@ -1723,7 +1724,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7343283563380428064</t>
         </is>
@@ -1774,7 +1775,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7342982310008065313</t>
         </is>
@@ -1825,7 +1826,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7342474927125155105</t>
         </is>
@@ -1876,7 +1877,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7342148563763203361</t>
         </is>
@@ -1927,7 +1928,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341726362010438945</t>
         </is>
@@ -1978,7 +1979,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341692388764650784</t>
         </is>
@@ -2029,7 +2030,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341464659158994208</t>
         </is>
@@ -2080,7 +2081,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341388001819299104</t>
         </is>
@@ -2131,7 +2132,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341279192094428449</t>
         </is>
@@ -2182,7 +2183,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341276647422758177</t>
         </is>
@@ -2233,7 +2234,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7341025481984183585</t>
         </is>
@@ -2284,7 +2285,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7340994709826964768</t>
         </is>
@@ -2335,7 +2336,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7340657663337827616</t>
         </is>
@@ -2386,7 +2387,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.theevanscreative/video/7340618914008780064</t>
         </is>
